--- a/data/trans_dic/PLURIPATOLOGIA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,9</t>
+          <t>5,67; 8,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,0</t>
+          <t>7,99; 11,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 11,3</t>
+          <t>7,37; 11,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,61; 26,12</t>
+          <t>19,58; 25,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 15,19</t>
+          <t>11,34; 15,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,8; 22,39</t>
+          <t>17,98; 22,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,51; 24,12</t>
+          <t>18,66; 24,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,52; 40,95</t>
+          <t>35,45; 41,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 11,81</t>
+          <t>9,41; 11,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 17,6</t>
+          <t>14,12; 17,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 17,96</t>
+          <t>14,33; 18,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,84; 34,32</t>
+          <t>30,09; 34,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,23</t>
+          <t>1,0; 2,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,04</t>
+          <t>0,9; 2,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,51</t>
+          <t>1,32; 2,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 7,75</t>
+          <t>5,6; 7,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,94</t>
+          <t>2,17; 3,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,95</t>
+          <t>2,99; 5,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,06</t>
+          <t>4,86; 7,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,86; 31,79</t>
+          <t>10,85; 29,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 2,73</t>
+          <t>1,69; 2,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 3,13</t>
+          <t>2,1; 3,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,52</t>
+          <t>3,25; 4,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,62; 20,39</t>
+          <t>8,68; 22,74</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,78</t>
+          <t>1,04; 3,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,74</t>
+          <t>0,42; 3,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,74</t>
+          <t>0,94; 3,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,88</t>
+          <t>2,9; 5,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,53</t>
+          <t>0,85; 3,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,68</t>
+          <t>1,99; 5,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,29</t>
+          <t>1,76; 5,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 10,34</t>
+          <t>6,89; 10,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,0</t>
+          <t>1,25; 3,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,68</t>
+          <t>1,39; 3,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,76</t>
+          <t>1,75; 3,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,23; 7,6</t>
+          <t>5,21; 7,52</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,04</t>
+          <t>2,82; 4,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,48</t>
+          <t>3,12; 4,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,23</t>
+          <t>3,0; 4,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 9,61</t>
+          <t>7,79; 9,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,69</t>
+          <t>5,85; 7,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,88; 10,93</t>
+          <t>8,94; 11,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 10,99</t>
+          <t>8,78; 10,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,4; 29,99</t>
+          <t>16,49; 26,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,65</t>
+          <t>4,56; 5,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 7,57</t>
+          <t>6,24; 7,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,38</t>
+          <t>6,16; 7,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,66; 19,49</t>
+          <t>12,7; 20,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PLURIPATOLOGIA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,81</t>
+          <t>5,83; 8,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 11,99</t>
+          <t>8,23; 12,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,58</t>
+          <t>7,38; 11,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,34; 15,19</t>
+          <t>11,27; 14,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,98; 22,31</t>
+          <t>17,91; 22,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,66; 24,45</t>
+          <t>18,44; 24,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 11,83</t>
+          <t>9,41; 11,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,12; 17,28</t>
+          <t>14,27; 17,35</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,33; 18,11</t>
+          <t>14,51; 18,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 2,24</t>
+          <t>1,01; 2,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,0</t>
+          <t>0,97; 2,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,58</t>
+          <t>1,33; 2,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,81</t>
+          <t>2,02; 3,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 5,04</t>
+          <t>2,97; 4,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 7,01</t>
+          <t>4,79; 7,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,73</t>
+          <t>1,71; 2,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 4,58</t>
+          <t>3,25; 4,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,8</t>
+          <t>1,07; 3,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,07</t>
+          <t>0,41; 3,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,7</t>
+          <t>0,85; 3,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,28</t>
+          <t>0,81; 3,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,86</t>
+          <t>1,92; 5,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,06</t>
+          <t>1,9; 5,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,16</t>
+          <t>1,17; 2,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,74</t>
+          <t>1,44; 3,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,9</t>
+          <t>1,66; 3,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,15</t>
+          <t>2,84; 4,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,56</t>
+          <t>3,16; 4,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 4,31</t>
+          <t>2,95; 4,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,54</t>
+          <t>5,83; 7,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,1</t>
+          <t>8,87; 10,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 10,91</t>
+          <t>8,77; 10,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,61</t>
+          <t>4,56; 5,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,52</t>
+          <t>6,29; 7,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,16; 7,36</t>
+          <t>6,12; 7,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/PLURIPATOLOGIA-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,83; 8,92</t>
+          <t>5,8; 8,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,23; 12,1</t>
+          <t>8,03; 12,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 11,44</t>
+          <t>7,51; 11,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,58; 25,92</t>
+          <t>19,61; 26,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 14,96</t>
+          <t>11,51; 15,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,91; 22,45</t>
+          <t>17,8; 22,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,44; 24,13</t>
+          <t>18,51; 24,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,45; 41,06</t>
+          <t>35,52; 40,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 11,86</t>
+          <t>9,3; 11,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,27; 17,35</t>
+          <t>14,29; 17,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14,51; 18,1</t>
+          <t>14,26; 17,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,09; 34,3</t>
+          <t>29,84; 34,32</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,29</t>
+          <t>0,98; 2,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,03</t>
+          <t>0,95; 2,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,54</t>
+          <t>1,25; 2,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 7,76</t>
+          <t>5,64; 7,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,78</t>
+          <t>2,15; 3,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 4,9</t>
+          <t>2,91; 4,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 7,11</t>
+          <t>4,86; 7,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,85; 29,26</t>
+          <t>10,86; 31,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,78</t>
+          <t>1,74; 2,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,22</t>
+          <t>2,06; 3,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 4,54</t>
+          <t>3,24; 4,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,68; 22,74</t>
+          <t>8,62; 20,39</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,82</t>
+          <t>1,12; 3,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,29</t>
+          <t>0,41; 3,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,53</t>
+          <t>0,95; 3,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,85</t>
+          <t>2,82; 5,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,3</t>
+          <t>0,86; 3,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,66</t>
+          <t>1,95; 5,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,28</t>
+          <t>1,83; 5,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 10,49</t>
+          <t>6,87; 10,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,97</t>
+          <t>1,2; 3,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,76</t>
+          <t>1,37; 3,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,78</t>
+          <t>1,58; 3,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,21; 7,52</t>
+          <t>5,23; 7,6</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,09</t>
+          <t>2,82; 4,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,49</t>
+          <t>3,16; 4,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,95; 4,18</t>
+          <t>3,04; 4,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 9,64</t>
+          <t>7,76; 9,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,63</t>
+          <t>5,89; 7,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 10,85</t>
+          <t>8,88; 10,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 10,99</t>
+          <t>8,79; 10,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,49; 26,6</t>
+          <t>16,4; 29,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,66</t>
+          <t>4,56; 5,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,57</t>
+          <t>6,27; 7,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 7,34</t>
+          <t>6,1; 7,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,7; 20,45</t>
+          <t>12,66; 19,49</t>
         </is>
       </c>
     </row>
